--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDED4285-4428-4961-87FE-08EEB2B9BE00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49993CA9-1DA7-4769-A99D-60808BFD1A99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>{d.arr[i+1]}</t>
   </si>
@@ -98,6 +98,33 @@
   </si>
   <si>
     <t>{d.arr[i].stepen}</t>
+  </si>
+  <si>
+    <t>{d.arr[i].nauchWork}</t>
+  </si>
+  <si>
+    <t>{d.arr[i].vospitWork}</t>
+  </si>
+  <si>
+    <t>{d.arr[i].lechWork}</t>
+  </si>
+  <si>
+    <t>{d.arr[i].mejWork}</t>
+  </si>
+  <si>
+    <t>{d.arr[i].indXirsh}</t>
+  </si>
+  <si>
+    <t>{d.arr[i].indXirshScop}</t>
+  </si>
+  <si>
+    <t>{d.arr[i].colvoScop}</t>
+  </si>
+  <si>
+    <t>{d.arr[i].colvoWoS}</t>
+  </si>
+  <si>
+    <t>{d.arr[i].covidWork}</t>
   </si>
 </sst>
 </file>
@@ -478,7 +505,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -571,15 +598,33 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="O2" s="2" t="s">
         <v>24</v>
       </c>
